--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -1,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,74; -4,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 21,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,05; -4,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,08</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,59</t>
+          <t>3,77</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -9,95</t>
+          <t>-4,09; 8,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -4,21</t>
+          <t>-0,05; 11,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -8,67</t>
+          <t>-0,89; 7,87</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-41,56%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-35,11%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,03%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,77; -26,84</t>
+          <t>-10,0; 23,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -18,97</t>
+          <t>-1,05; 53,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -28,56</t>
+          <t>-2,72; 27,43</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-4,8</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 1,23</t>
+          <t>-15,36; -0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -0,22</t>
+          <t>-9,92; 3,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,86</t>
+          <t>-10,18; 0,58</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-12,95%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 6,2</t>
+          <t>-30,0; -0,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -1,17</t>
+          <t>-31,03; 15,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -5,26</t>
+          <t>-25,75; 1,95</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,91</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,85</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -2,94</t>
+          <t>-14,31; -1,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -1,93</t>
+          <t>-4,39; 7,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -5,69</t>
+          <t>-7,42; 1,07</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,69%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,71%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-7,39%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,41; -10,46</t>
+          <t>-27,8; -3,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,42; -8,0</t>
+          <t>-14,12; 28,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,0; -20,29</t>
+          <t>-17,92; 3,35</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-19,86</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-13,65</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -11,52</t>
+          <t>-8,7; 11,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -7,34</t>
+          <t>-8,29; 10,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,28; -11,7</t>
+          <t>-5,5; 7,65</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-52,53%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-52,68%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-53,17%</t>
+          <t>3,67%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -35,19</t>
+          <t>-18,57; 31,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -32,9</t>
+          <t>-25,32; 43,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,66; -41,78</t>
+          <t>-13,88; 24,27</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-15,71</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>-7,49</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 1,42</t>
+          <t>-24,2; -8,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 0,4</t>
+          <t>-7,0; 7,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,85; -1,74</t>
+          <t>-13,26; -2,04</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>-21,59%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 4,91</t>
+          <t>-48,03; -18,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 4,31</t>
+          <t>-25,41; 39,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,64; -7,41</t>
+          <t>-34,25; -5,83</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 0,49</t>
+          <t>-2,09; 9,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,55</t>
+          <t>-2,09; 8,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,57</t>
+          <t>0,06; 7,01</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,82%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-21,12%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 1,93</t>
+          <t>-5,34; 26,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 2,13</t>
+          <t>-7,65; 35,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,82; -7,03</t>
+          <t>0,22; 23,85</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-1,45</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 0,2</t>
+          <t>-9,62; 0,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -5,27</t>
+          <t>-2,6; 5,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -3,53</t>
+          <t>-4,92; 1,91</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-37,85%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 0,61</t>
+          <t>-21,13; 1,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-50,16; -23,8</t>
+          <t>-10,17; 27,55</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -13,72</t>
+          <t>-14,16; 6,11</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -6,51</t>
+          <t>-5,32; -0,51</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -5,42</t>
+          <t>-0,29; 3,92</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -6,77</t>
+          <t>-2,11; 1,33</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-30,54%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-29,28%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -20,81</t>
+          <t>-12,16; -1,2</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,78; -23,56</t>
+          <t>-1,2; 15,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -24,61</t>
+          <t>-6,15; 4,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,45</t>
+          <t>-4,21; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,02</t>
+          <t>-0,11; 10,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 7,87</t>
+          <t>-0,45; 7,99</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 23,61</t>
+          <t>-10,52; 23,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 53,64</t>
+          <t>-0,48; 50,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 27,43</t>
+          <t>-1,35; 27,57</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -0,35</t>
+          <t>-14,92; -0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 3,76</t>
+          <t>-9,6; 4,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 0,58</t>
+          <t>-10,35; 0,61</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; -0,78</t>
+          <t>-30,06; 0,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 15,31</t>
+          <t>-29,29; 19,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 1,95</t>
+          <t>-25,98; 1,82</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -1,19</t>
+          <t>-13,73; -0,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,23</t>
+          <t>-3,81; 7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,07</t>
+          <t>-7,15; 1,82</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,8; -3,63</t>
+          <t>-26,73; -1,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 28,68</t>
+          <t>-12,01; 28,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 3,35</t>
+          <t>-17,51; 5,28</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 11,44</t>
+          <t>-7,8; 11,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 10,09</t>
+          <t>-7,5; 10,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,65</t>
+          <t>-5,54; 8,46</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 31,31</t>
+          <t>-17,49; 32,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 43,77</t>
+          <t>-22,69; 43,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 24,27</t>
+          <t>-13,89; 26,9</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -8,01</t>
+          <t>-24,11; -7,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 7,68</t>
+          <t>-7,38; 7,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -2,04</t>
+          <t>-13,09; -1,77</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -18,51</t>
+          <t>-47,42; -18,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 39,52</t>
+          <t>-27,47; 36,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,25; -5,83</t>
+          <t>-35,13; -5,7</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 9,08</t>
+          <t>-1,2; 10,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 8,12</t>
+          <t>-2,22; 7,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,01</t>
+          <t>-0,34; 6,95</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 26,26</t>
+          <t>-3,03; 28,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 35,08</t>
+          <t>-7,94; 35,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,22; 23,85</t>
+          <t>-0,88; 24,02</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 0,66</t>
+          <t>-10,0; 0,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 5,99</t>
+          <t>-2,85; 6,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,91</t>
+          <t>-4,74; 2,05</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 1,82</t>
+          <t>-22,36; 2,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 27,55</t>
+          <t>-10,97; 30,17</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 6,11</t>
+          <t>-13,58; 6,62</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -0,51</t>
+          <t>-5,19; -0,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,92</t>
+          <t>-0,1; 4,31</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,33</t>
+          <t>-1,95; 1,24</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -1,2</t>
+          <t>-11,87; -1,25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 15,73</t>
+          <t>-0,35; 17,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 4,06</t>
+          <t>-5,69; 3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 8,56</t>
+          <t>-3,37; 8,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 10,75</t>
+          <t>0,05; 10,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,99</t>
+          <t>-1,3; 7,99</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 23,69</t>
+          <t>-8,07; 25,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 50,86</t>
+          <t>0,42; 51,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 27,57</t>
+          <t>-3,72; 28,13</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -0,08</t>
+          <t>-15,03; 0,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,93</t>
+          <t>-10,15; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 0,61</t>
+          <t>-10,01; 0,68</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 0,01</t>
+          <t>-30,28; 2,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 19,63</t>
+          <t>-31,7; 16,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 1,82</t>
+          <t>-24,9; 1,97</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -0,79</t>
+          <t>-13,88; -0,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,19</t>
+          <t>-4,0; 7,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 1,82</t>
+          <t>-7,08; 1,54</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -1,69</t>
+          <t>-26,81; -1,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 28,01</t>
+          <t>-12,52; 27,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 5,28</t>
+          <t>-17,55; 4,36</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,59</t>
+          <t>-9,22; 11,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 10,66</t>
+          <t>-7,91; 10,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 8,46</t>
+          <t>-4,79; 8,19</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 32,41</t>
+          <t>-19,68; 32,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 43,15</t>
+          <t>-23,58; 43,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 26,9</t>
+          <t>-12,57; 25,58</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,11; -7,96</t>
+          <t>-24,26; -7,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 7,43</t>
+          <t>-7,22; 7,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -1,77</t>
+          <t>-12,89; -2,05</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -18,27</t>
+          <t>-47,94; -17,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 36,18</t>
+          <t>-26,01; 35,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -5,7</t>
+          <t>-34,63; -6,39</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 10,16</t>
+          <t>-1,26; 9,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,94</t>
+          <t>-2,04; 7,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,95</t>
+          <t>-0,61; 6,85</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 28,35</t>
+          <t>-2,94; 28,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 35,33</t>
+          <t>-7,15; 34,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 24,02</t>
+          <t>-1,82; 22,67</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 0,93</t>
+          <t>-9,87; 0,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,42</t>
+          <t>-3,44; 5,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,05</t>
+          <t>-5,02; 2,04</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 2,33</t>
+          <t>-21,81; 1,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 30,17</t>
+          <t>-12,93; 25,64</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 6,62</t>
+          <t>-14,49; 6,37</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,47</t>
+          <t>-5,41; -0,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,31</t>
+          <t>-0,55; 3,97</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,24</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,25</t>
+          <t>-12,23; -1,45</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 17,6</t>
+          <t>-1,97; 16,35</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,69</t>
+          <t>-5,87; 3,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +513,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +530,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +554,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +584,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
         </is>
       </c>
     </row>
@@ -579,17 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 12,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,69; 4,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 14,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 5,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 11,25</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 2,04</t>
         </is>
       </c>
     </row>
@@ -602,17 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-7,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-10,34%</t>
         </is>
       </c>
     </row>
@@ -625,17 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; 32,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 11,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 62,4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-29,49; 25,32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 35,1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-24,19; 6,39</t>
         </is>
       </c>
     </row>
@@ -657,12 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5,33</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>3,77</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
         </is>
       </c>
     </row>
@@ -680,12 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-3,55; 9,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,05; 10,76</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 9,07</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-1,3; 7,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 7,36</t>
         </is>
       </c>
     </row>
@@ -703,12 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>22,62%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>12,11%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -726,12 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-8,45; 27,02</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,42; 51,29</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 44,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-3,72; 28,13</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 25,84</t>
         </is>
       </c>
     </row>
@@ -753,12 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-16,13</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,58</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-4,8</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-9,96</t>
         </is>
       </c>
     </row>
@@ -776,12 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-23,97; -8,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-10,15; 3,87</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 3,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-10,01; 0,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; -5,08</t>
         </is>
       </c>
     </row>
@@ -799,12 +994,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-34,78%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-9,11%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-14,44%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-12,95%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-26,85%</t>
         </is>
       </c>
     </row>
@@ -822,12 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-47,42; -20,53</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-31,7; 16,34</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; 12,59</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-24,9; 1,97</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; -14,84</t>
         </is>
       </c>
     </row>
@@ -844,17 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-6,84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -867,17 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,88; -0,52</t>
+          <t>-19,96; -5,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,05</t>
+          <t>-16,16; -1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 1,54</t>
+          <t>-7,88; 5,33</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 6,55</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-11,91; -2,09</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 0,47</t>
         </is>
       </c>
     </row>
@@ -890,17 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>-25,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>-19,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-18,11%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -1,14</t>
+          <t>-39,27; -12,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 27,96</t>
+          <t>-31,77; -3,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 4,36</t>
+          <t>-25,28; 21,53</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 25,64</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-29,65; -5,67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 1,61</t>
         </is>
       </c>
     </row>
@@ -945,12 +1230,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>1,28</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -968,12 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-10,26; 9,15</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>-7,91; 10,31</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 5,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>-4,79; 8,19</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 4,7</t>
         </is>
       </c>
     </row>
@@ -991,12 +1306,27 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>3,96%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>3,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,26%</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-21,08; 24,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>-23,58; 43,63</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-34,31; 21,47</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>-12,57; 25,58</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 14,88</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>-12,38</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>0,51</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>-7,49</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
+          <t>-20,59; -4,3</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>-7,22; 7,11</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 10,78</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>-12,89; -2,05</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 1,36</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1462,27 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-26,75%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>-21,59%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>-12,73%</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
+          <t>-40,95; -10,2</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>-26,01; 35,59</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 55,27</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>-34,63; -6,39</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-26,25; 4,2</t>
         </is>
       </c>
     </row>
@@ -1137,12 +1542,27 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>-7,37</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
           <t>2,76</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>3,37</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1580,27 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
+          <t>-13,01; -1,84</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
           <t>-2,04; 7,8</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 5,03</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>-0,61; 6,85</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 0,09</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1618,27 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
+          <t>-19,3%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
           <t>10,91%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>10,66%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-11,38%</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1656,27 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
+          <t>-31,82; -5,02</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
           <t>-7,15; 34,26</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; 22,4</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>-1,82; 22,67</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; 0,12</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1698,27 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>-9,8</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
           <t>1,59</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>-1,45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1736,27 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
+          <t>-14,73; -4,77</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
           <t>-3,44; 5,56</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 6,7</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>-5,02; 2,04</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; -0,37</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1774,27 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
+          <t>-22,96%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
           <t>6,7%</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-11,16%</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1812,27 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
+          <t>-32,65; -11,97</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
           <t>-12,93; 25,64</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 31,39</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-14,49; 6,37</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; -1,21</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1854,27 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
           <t>1,9</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>-0,4</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1892,27 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
+          <t>-9,64; -4,95</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
           <t>-0,55; 3,97</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 2,78</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>-2,02; 1,27</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; -1,66</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1930,27 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
+          <t>-17,08%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
           <t>7,45%</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -1398,12 +1968,27 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
+          <t>-22,01; -11,82</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
           <t>-1,97; 16,35</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 11,17</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>-5,87; 3,89</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; -4,96</t>
         </is>
       </c>
     </row>
@@ -1415,11 +2000,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>

--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 12,35</t>
+          <t>-3,61; 12,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 4,3</t>
+          <t>-13,39; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 14,58</t>
+          <t>-2,02; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 5,61</t>
+          <t>-10,6; 5,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,25</t>
+          <t>-0,51; 11,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 2,04</t>
+          <t>-9,28; 1,71</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 32,99</t>
+          <t>-8,53; 34,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 11,41</t>
+          <t>-29,61; 9,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 62,4</t>
+          <t>-7,42; 64,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 25,32</t>
+          <t>-32,4; 23,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 35,1</t>
+          <t>-1,41; 36,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 6,39</t>
+          <t>-24,3; 5,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,86</t>
+          <t>-4,43; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,66</t>
+          <t>-3,25; 9,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 10,76</t>
+          <t>0,38; 11,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,07</t>
+          <t>-1,44; 8,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,99</t>
+          <t>-0,72; 8,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,36</t>
+          <t>-0,96; 7,5</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 25,24</t>
+          <t>-10,61; 26,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 27,02</t>
+          <t>-7,58; 25,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 51,29</t>
+          <t>1,77; 52,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 44,21</t>
+          <t>-5,58; 42,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 28,13</t>
+          <t>-2,07; 28,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 25,84</t>
+          <t>-2,87; 26,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 0,77</t>
+          <t>-14,94; 0,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,97; -8,72</t>
+          <t>-24,16; -9,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 3,87</t>
+          <t>-9,33; 4,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 3,12</t>
+          <t>-10,59; 2,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 0,68</t>
+          <t>-10,02; 0,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -5,08</t>
+          <t>-14,92; -5,07</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 2,06</t>
+          <t>-29,88; 0,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -20,53</t>
+          <t>-47,74; -20,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 16,34</t>
+          <t>-30,25; 16,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 12,59</t>
+          <t>-33,93; 11,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 1,97</t>
+          <t>-25,23; 2,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,48; -14,84</t>
+          <t>-37,39; -14,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,96; -5,76</t>
+          <t>-19,87; -4,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,44</t>
+          <t>-16,6; -1,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 5,33</t>
+          <t>-8,33; 4,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,55</t>
+          <t>-6,58; 6,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -2,09</t>
+          <t>-12,0; -1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,47</t>
+          <t>-9,5; 0,02</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,27; -12,53</t>
+          <t>-39,28; -11,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,77; -3,27</t>
+          <t>-31,54; -2,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 21,53</t>
+          <t>-26,5; 17,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 25,64</t>
+          <t>-20,78; 27,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,65; -5,67</t>
+          <t>-30,24; -5,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 1,61</t>
+          <t>-23,86; 0,45</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 11,61</t>
+          <t>-8,13; 12,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 9,15</t>
+          <t>-10,26; 9,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 10,31</t>
+          <t>-8,45; 10,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 5,19</t>
+          <t>-11,32; 6,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 8,19</t>
+          <t>-5,12; 8,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 4,7</t>
+          <t>-8,84; 4,51</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 32,76</t>
+          <t>-17,68; 32,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 24,84</t>
+          <t>-22,05; 24,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 43,63</t>
+          <t>-24,79; 45,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 21,47</t>
+          <t>-35,45; 24,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 25,58</t>
+          <t>-13,38; 26,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 14,88</t>
+          <t>-22,48; 13,49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,26; -7,7</t>
+          <t>-23,76; -7,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -4,3</t>
+          <t>-20,56; -3,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 7,11</t>
+          <t>-6,79; 7,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 10,78</t>
+          <t>-4,05; 10,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -2,05</t>
+          <t>-12,74; -2,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 1,36</t>
+          <t>-9,75; 1,54</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -17,74</t>
+          <t>-47,16; -17,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -10,2</t>
+          <t>-41,71; -9,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 35,59</t>
+          <t>-24,96; 38,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 55,27</t>
+          <t>-14,4; 52,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -6,39</t>
+          <t>-33,87; -6,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 4,2</t>
+          <t>-26,11; 4,34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 9,87</t>
+          <t>-1,31; 10,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -1,84</t>
+          <t>-13,0; -1,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 7,8</t>
+          <t>-2,01; 7,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,03</t>
+          <t>-5,19; 4,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,85</t>
+          <t>-0,17; 7,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,09</t>
+          <t>-7,33; 0,33</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 28,37</t>
+          <t>-3,19; 29,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,82; -5,02</t>
+          <t>-31,69; -4,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 34,26</t>
+          <t>-7,19; 33,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 22,4</t>
+          <t>-18,5; 20,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 22,67</t>
+          <t>-0,64; 25,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 0,12</t>
+          <t>-22,01; 1,1</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 0,61</t>
+          <t>-9,51; 0,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -4,77</t>
+          <t>-14,8; -4,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,56</t>
+          <t>-2,56; 5,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,7</t>
+          <t>-2,34; 6,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,04</t>
+          <t>-4,8; 1,79</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,37</t>
+          <t>-6,95; -0,33</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 1,51</t>
+          <t>-21,11; 1,64</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -11,97</t>
+          <t>-32,18; -11,45</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 25,64</t>
+          <t>-9,9; 27,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 31,39</t>
+          <t>-9,23; 29,91</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 6,37</t>
+          <t>-13,83; 5,85</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -1,21</t>
+          <t>-20,31; -1,24</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,63</t>
+          <t>-4,88; -0,21</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -4,95</t>
+          <t>-9,55; -4,83</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,97</t>
+          <t>-0,25; 4,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,78</t>
+          <t>-1,5; 2,69</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,13; 1,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -1,66</t>
+          <t>-5,1; -1,78</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -1,45</t>
+          <t>-11,23; -0,51</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -11,82</t>
+          <t>-21,85; -11,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 16,35</t>
+          <t>-1,1; 17,14</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 11,17</t>
+          <t>-5,71; 10,86</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,89</t>
+          <t>-6,15; 3,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -4,96</t>
+          <t>-14,66; -5,37</t>
         </is>
       </c>
     </row>
